--- a/Analise de Eventos - Oficial.xlsx
+++ b/Analise de Eventos - Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBEDD4-B276-41B0-BFCF-17DF1FDE7200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC3995A-422E-4AA4-8A13-502580315A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="3" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenários" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>Capacidade</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Atualizar Ordem de Serviço</t>
   </si>
   <si>
-    <t>O mecânico altera o status da ordem de serviço.</t>
-  </si>
-  <si>
     <t>x(22)</t>
   </si>
   <si>
@@ -329,12 +326,6 @@
     <t>Dar Baixa na O.S</t>
   </si>
   <si>
-    <t>Notificar Cliente</t>
-  </si>
-  <si>
-    <t>O atendente notifica o cliente referente a finalização da O.S</t>
-  </si>
-  <si>
     <t>x(24)</t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>Fornecedor informa os dados para cadastro no sistema;</t>
   </si>
   <si>
-    <t>Atendente realiza cadastro do fornecedeor;</t>
-  </si>
-  <si>
     <t>X(19)</t>
   </si>
   <si>
@@ -420,13 +408,40 @@
   </si>
   <si>
     <t>x(32)</t>
+  </si>
+  <si>
+    <t>Atendente verifica dados informados</t>
+  </si>
+  <si>
+    <t>Cliente informa os dados para cadastro;</t>
+  </si>
+  <si>
+    <t>O mecânico realiza a ordem de serviço;</t>
+  </si>
+  <si>
+    <t>Atendente informa valor total a pagar;</t>
+  </si>
+  <si>
+    <t>Atendente retorna o produto para o cliente;</t>
+  </si>
+  <si>
+    <t>O mecânico notifica o cliente sobre a finalização da manutenção do produto;</t>
+  </si>
+  <si>
+    <t>O cliente entrega o comprovante da Ordem de Serviço;</t>
+  </si>
+  <si>
+    <t>Atendente verifica disponibilidade de peças no estoque;</t>
+  </si>
+  <si>
+    <t>Gerente realiza cadastro do fornecedor;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,8 +477,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +537,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,9 +779,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -765,9 +795,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,6 +974,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,44 +1332,44 @@
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="69"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1331,62 +1385,62 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="E3" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="14">
+      <c r="A4" s="92"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="15">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="105" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="9"/>
@@ -1399,20 +1453,20 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="105" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="9"/>
@@ -1425,14 +1479,14 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="106" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="20"/>
@@ -1445,14 +1499,14 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="54"/>
+    <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="9"/>
@@ -1465,20 +1519,20 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:12" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="27">
         <v>7</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="102" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="9"/>
@@ -1491,22 +1545,16 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>28</v>
-      </c>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -1517,20 +1565,16 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="56" t="s">
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="103" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="9"/>
@@ -1543,15 +1587,15 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>92</v>
+      <c r="E12" s="101" t="s">
+        <v>126</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1563,15 +1607,15 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
+    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="8">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+      <c r="E13" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1583,12 +1627,12 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>97</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1596,152 +1640,136 @@
       <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>98</v>
+      <c r="E14" s="101" t="s">
+        <v>130</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>100</v>
+      <c r="E15" s="101" t="s">
+        <v>127</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>104</v>
+      <c r="E16" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8">
+    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>101</v>
+      <c r="E17" s="101" t="s">
+        <v>128</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="3">
+    <row r="18" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>108</v>
+      <c r="E18" s="103" t="s">
+        <v>97</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>89</v>
+      <c r="H18" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="3">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>109</v>
-      </c>
+    <row r="19" spans="1:13" ht="54" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>14</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
-        <v>18</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>119</v>
+      <c r="D20" s="8">
+        <v>15</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
@@ -1750,381 +1778,467 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="102"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="3">
-        <v>19</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>120</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="8">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>131</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="102"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="37"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>121</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="102"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="37"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="3">
-        <v>21</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>22</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>116</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="102"/>
+      <c r="K24" s="100"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="3">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="108" t="s">
+        <v>132</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="102"/>
+      <c r="K25" s="100"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="56"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="3">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>52</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="102"/>
+      <c r="K26" s="100"/>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="56"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="96"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>53</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="102"/>
+      <c r="K27" s="100"/>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="56"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>12</v>
+      </c>
       <c r="D28" s="3">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="11"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="3">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="100"/>
       <c r="L29" s="9"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="3">
-        <v>28</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="100"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="78" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="35">
-        <v>29</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>22</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="100"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>12</v>
-      </c>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="3">
-        <v>30</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="3">
-        <v>31</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>112</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
+    <row r="34" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="3">
-        <v>32</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="3">
-        <v>33</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>82</v>
+    <row r="35" spans="1:12" ht="78" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="34">
+        <v>29</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>22</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>12</v>
+      </c>
       <c r="D36" s="3">
-        <v>34</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="E36" s="103" t="s">
+        <v>79</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="3">
+        <v>31</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="3">
+        <v>32</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="3">
+        <v>33</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="3">
+        <v>34</v>
+      </c>
+      <c r="E40" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A32:A36"/>
+  <mergeCells count="31">
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -2134,6 +2248,7 @@
     <mergeCell ref="K1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2158,35 +2273,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="69"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2202,14 +2317,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
@@ -2229,8 +2344,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2248,8 +2363,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -2267,10 +2382,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
@@ -2290,8 +2405,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="14">
         <v>5</v>
       </c>
@@ -2309,8 +2424,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="15">
         <v>6</v>
       </c>
@@ -2328,10 +2443,10 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8">
@@ -2351,8 +2466,8 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="8">
         <v>8</v>
       </c>
@@ -2370,8 +2485,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -2387,8 +2502,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8">
         <v>10</v>
       </c>
@@ -2458,35 +2573,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="69"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2502,14 +2617,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
@@ -2529,8 +2644,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2571,10 +2686,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
@@ -2594,8 +2709,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
@@ -2613,8 +2728,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -2693,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DABD84-0F9A-4686-9110-0C421D5326F1}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
@@ -2710,35 +2825,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="69"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2754,14 +2869,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -2781,8 +2896,8 @@
       <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -2800,8 +2915,8 @@
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -2819,8 +2934,8 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -2838,8 +2953,8 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="8">
         <v>5</v>
       </c>
@@ -2857,8 +2972,8 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -2876,8 +2991,8 @@
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="8">
         <v>7</v>
       </c>
@@ -2916,7 +3031,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,35 +3047,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="78" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="79"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="88"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
@@ -2976,14 +3091,14 @@
       <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
@@ -3003,8 +3118,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -3022,8 +3137,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
@@ -3041,7 +3156,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3064,7 +3179,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="90" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -3087,7 +3202,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -3129,7 +3244,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,35 +3261,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="69"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3190,8 +3305,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3227,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
@@ -3240,10 +3355,10 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
@@ -3263,8 +3378,8 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>

--- a/Analise de Eventos - Oficial.xlsx
+++ b/Analise de Eventos - Oficial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC3995A-422E-4AA4-8A13-502580315A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC54079-E376-483F-AE8D-2EC7EF51DE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="131">
   <si>
     <t>Capacidade</t>
   </si>
@@ -308,9 +308,6 @@
     <t>x(15)</t>
   </si>
   <si>
-    <t>x(20)</t>
-  </si>
-  <si>
     <t>Atualizar Ordem de Serviço</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>Fornecedor informa os dados para cadastro no sistema;</t>
-  </si>
-  <si>
-    <t>X(19)</t>
   </si>
   <si>
     <t>x(25)</t>
@@ -697,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,14 +789,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -813,28 +864,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,107 +951,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,39 +1328,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="67"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1385,24 +1376,24 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="71" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="107" t="s">
-        <v>125</v>
+      <c r="E3" s="50" t="s">
+        <v>123</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
@@ -1415,14 +1406,14 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="105" t="s">
-        <v>124</v>
+      <c r="E4" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="9" t="s">
@@ -1434,13 +1425,13 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="9"/>
@@ -1454,19 +1445,19 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="71" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="9"/>
@@ -1480,13 +1471,13 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="49" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="20"/>
@@ -1500,13 +1491,13 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="9"/>
@@ -1520,8 +1511,8 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>109</v>
+      <c r="A9" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>56</v>
@@ -1532,7 +1523,7 @@
       <c r="D9" s="27">
         <v>7</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="45" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="9"/>
@@ -1546,15 +1537,15 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>91</v>
+      <c r="A10" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="102"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -1566,15 +1557,15 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="54" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="46" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="9"/>
@@ -1588,14 +1579,14 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="101" t="s">
-        <v>126</v>
+      <c r="E12" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1608,14 +1599,14 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="8">
         <v>11</v>
       </c>
-      <c r="E13" s="103" t="s">
-        <v>129</v>
+      <c r="E13" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1628,11 +1619,11 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>95</v>
+      <c r="A14" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1640,13 +1631,13 @@
       <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="101" t="s">
-        <v>130</v>
+      <c r="E14" s="44" t="s">
+        <v>128</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1654,14 +1645,14 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="101" t="s">
-        <v>127</v>
+      <c r="E15" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1672,13 +1663,13 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="9"/>
@@ -1690,14 +1681,14 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="101" t="s">
-        <v>128</v>
+      <c r="E17" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1708,21 +1699,21 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8">
         <v>16</v>
       </c>
-      <c r="E18" s="103" t="s">
-        <v>97</v>
+      <c r="E18" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1730,11 +1721,11 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="54" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
-        <v>100</v>
+      <c r="A19" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>12</v>
@@ -1742,13 +1733,13 @@
       <c r="D19" s="8">
         <v>14</v>
       </c>
-      <c r="E19" s="106" t="s">
-        <v>101</v>
+      <c r="E19" s="49" t="s">
+        <v>100</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1756,20 +1747,20 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="8">
         <v>15</v>
       </c>
-      <c r="E20" s="106" t="s">
-        <v>98</v>
+      <c r="E20" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
@@ -1782,14 +1773,14 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="8">
         <v>16</v>
       </c>
-      <c r="E21" s="106" t="s">
-        <v>131</v>
+      <c r="E21" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1800,14 +1791,14 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="3">
         <v>16</v>
       </c>
-      <c r="E22" s="106" t="s">
-        <v>105</v>
+      <c r="E22" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1820,17 +1811,17 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="3">
         <v>17</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="49" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1839,12 +1830,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>114</v>
+    <row r="24" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>12</v>
@@ -1852,8 +1843,8 @@
       <c r="D24" s="3">
         <v>18</v>
       </c>
-      <c r="E24" s="108" t="s">
-        <v>116</v>
+      <c r="E24" s="51" t="s">
+        <v>115</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
@@ -1862,240 +1853,244 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="100"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="9"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="98"/>
+    <row r="25" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="36"/>
       <c r="D25" s="3">
         <v>19</v>
       </c>
-      <c r="E25" s="108" t="s">
-        <v>132</v>
+      <c r="E25" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="100"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="9"/>
       <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>12</v>
+      </c>
       <c r="D26" s="3">
-        <v>20</v>
-      </c>
-      <c r="E26" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>117</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="100"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="9"/>
       <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="3">
-        <v>21</v>
-      </c>
-      <c r="E27" s="109" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="100"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="9"/>
       <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="58"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="3">
-        <v>22</v>
-      </c>
-      <c r="E28" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="3">
         <v>25</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="3">
-        <v>23</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>13</v>
+      <c r="E29" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="100"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="54"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="69"/>
       <c r="D30" s="3">
-        <v>24</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="54"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="3">
-        <v>25</v>
-      </c>
-      <c r="E31" s="101" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="100"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="54"/>
+    <row r="32" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="3">
-        <v>26</v>
-      </c>
-      <c r="E32" s="101" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="3">
-        <v>27</v>
-      </c>
-      <c r="E33" s="101" t="s">
-        <v>112</v>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="78" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="34">
+        <v>29</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="54"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>12</v>
+      </c>
       <c r="D34" s="3">
-        <v>28</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>99</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="78" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="34">
-        <v>29</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>22</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="3">
+        <v>31</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -2108,24 +2103,18 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>12</v>
-      </c>
+      <c r="A36" s="58"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="3">
-        <v>30</v>
-      </c>
-      <c r="E36" s="103" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="32" t="s">
         <v>121</v>
       </c>
       <c r="I36" s="9"/>
@@ -2134,118 +2123,78 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="3">
-        <v>31</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>80</v>
+        <v>33</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="3">
-        <v>32</v>
-      </c>
-      <c r="E38" s="103" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="32" t="s">
-        <v>123</v>
-      </c>
+      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="3">
-        <v>33</v>
-      </c>
-      <c r="E39" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="3">
-        <v>34</v>
-      </c>
-      <c r="E40" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2273,35 +2222,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2317,14 +2266,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
@@ -2344,8 +2293,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2363,8 +2312,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -2382,10 +2331,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
@@ -2405,8 +2354,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="14">
         <v>5</v>
       </c>
@@ -2424,8 +2373,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="15">
         <v>6</v>
       </c>
@@ -2443,10 +2392,10 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8">
@@ -2466,8 +2415,8 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="8">
         <v>8</v>
       </c>
@@ -2485,8 +2434,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -2502,8 +2451,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="8">
         <v>10</v>
       </c>
@@ -2533,18 +2482,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2573,35 +2522,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2617,14 +2566,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
@@ -2644,8 +2593,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2686,10 +2635,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
@@ -2709,8 +2658,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
@@ -2728,8 +2677,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -2788,16 +2737,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2825,35 +2774,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2869,14 +2818,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="93" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -2896,8 +2845,8 @@
       <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -2915,8 +2864,8 @@
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -2934,8 +2883,8 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -2953,8 +2902,8 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="8">
         <v>5</v>
       </c>
@@ -2972,8 +2921,8 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
@@ -2991,8 +2940,8 @@
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="8">
         <v>7</v>
       </c>
@@ -3047,35 +2996,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="76" t="s">
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="77"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
@@ -3091,14 +3040,14 @@
       <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
@@ -3118,8 +3067,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -3137,8 +3086,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
@@ -3156,7 +3105,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="41" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3179,7 +3128,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -3202,7 +3151,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -3261,35 +3210,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3305,8 +3254,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3342,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
@@ -3355,10 +3304,10 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
@@ -3378,8 +3327,8 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -3398,14 +3347,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Analise de Eventos - Oficial.xlsx
+++ b/Analise de Eventos - Oficial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7ACFE0-39A4-4974-86C7-C1D1288D5FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43091A1C-FA5D-440F-B30F-3C389E27D267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analise de Eventos - Oficial.xlsx
+++ b/Analise de Eventos - Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43091A1C-FA5D-440F-B30F-3C389E27D267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1AF4F-B003-499D-B9D0-73DC786DA8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenários" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>Capacidade</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>x(29)</t>
+  </si>
+  <si>
+    <t>Cadastrar Funcionario</t>
+  </si>
+  <si>
+    <t>Funcionário informa os dados para cadastro/</t>
+  </si>
+  <si>
+    <t>O Gerente realiza o cadastro do funcionário;</t>
+  </si>
+  <si>
+    <t>x(34)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,50 +722,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,15 +782,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,24 +790,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,26 +887,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,16 +1204,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="4" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1210,39 +1225,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1258,23 +1273,23 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F3" s="33"/>
@@ -1288,9 +1303,9 @@
       <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="7">
         <v>2</v>
       </c>
@@ -1308,9 +1323,9 @@
       <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="7">
         <v>3</v>
       </c>
@@ -1328,13 +1343,13 @@
       <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1354,9 +1369,9 @@
       <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1374,9 +1389,9 @@
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -1394,7 +1409,7 @@
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1420,10 +1435,10 @@
       <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="39" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="55"/>
@@ -1444,8 +1459,8 @@
       <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="55"/>
       <c r="D11" s="7">
         <v>9</v>
@@ -1464,10 +1479,10 @@
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1490,8 +1505,8 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
         <v>11</v>
@@ -1510,8 +1525,8 @@
       <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
         <v>12</v>
@@ -1530,8 +1545,8 @@
       <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <v>13</v>
@@ -1550,8 +1565,8 @@
       <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1572,10 +1587,10 @@
       <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -1598,8 +1613,8 @@
       <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="53"/>
       <c r="D18" s="7">
         <v>16</v>
@@ -1618,8 +1633,8 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="53"/>
       <c r="D19" s="3">
         <v>17</v>
@@ -1638,8 +1653,8 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="54"/>
       <c r="D20" s="3">
         <v>18</v>
@@ -1658,10 +1673,10 @@
       <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1685,8 +1700,8 @@
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="24"/>
       <c r="D22" s="3">
         <v>20</v>
@@ -1706,10 +1721,10 @@
       <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -1733,8 +1748,8 @@
       <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="55"/>
       <c r="D24" s="3">
         <v>22</v>
@@ -1754,8 +1769,8 @@
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="55"/>
       <c r="D25" s="3">
         <v>23</v>
@@ -1774,8 +1789,8 @@
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="55"/>
       <c r="D26" s="3">
         <v>24</v>
@@ -1794,10 +1809,10 @@
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="39" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="55"/>
@@ -1818,8 +1833,8 @@
       <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="55"/>
       <c r="D28" s="3">
         <v>26</v>
@@ -1838,8 +1853,8 @@
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="55"/>
       <c r="D29" s="3">
         <v>27</v>
@@ -1858,7 +1873,7 @@
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:13" ht="78" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -1884,7 +1899,7 @@
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="56" t="s">
@@ -1910,7 +1925,7 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="56"/>
       <c r="C32" s="55"/>
       <c r="D32" s="3">
@@ -1930,7 +1945,7 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="56"/>
       <c r="C33" s="55"/>
       <c r="D33" s="3">
@@ -1950,7 +1965,7 @@
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="56"/>
       <c r="C34" s="55"/>
       <c r="D34" s="3">
@@ -1970,7 +1985,7 @@
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="56"/>
       <c r="C35" s="55"/>
       <c r="D35" s="3">
@@ -1989,8 +2004,73 @@
       </c>
       <c r="L35" s="33"/>
     </row>
+    <row r="36" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7">
+        <v>34</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="3">
+        <v>35</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -2006,22 +2086,6 @@
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2049,35 +2113,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2093,14 +2157,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7">
@@ -2120,8 +2184,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
@@ -2139,8 +2203,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
@@ -2158,8 +2222,8 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
@@ -2177,8 +2241,8 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -2196,8 +2260,8 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -2215,8 +2279,8 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
@@ -2254,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB973BCD-1CCE-48B6-A608-958742123FE9}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,35 +2335,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="74"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
@@ -2315,14 +2379,14 @@
       <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -2342,8 +2406,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -2361,8 +2425,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -2485,35 +2549,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2529,8 +2593,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
